--- a/Testdata/TC_32.xlsx
+++ b/Testdata/TC_32.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>URwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUvL6ssaYgW52hEqWIcn1Oi/FiBxbrMmhyhna1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FNkrOmuzDWnHObM2fOdYzeuQ5845JEzAvpXqVesyoGoU7oevR8rxLzs2p9q/KOjbrXDvGPcIQDwoHYAC7Kdq+Zt1eZcT7fNc2rq6va1UYtjM7NhmXVzSeD/tiZkQBXPco4pg6ppFzu27kqNmq7wYBw7GKOFedepTfu1drEczoAG2CKz0lUa8XMo4SxLuUe9wgTnBHBnLQ7g++pg9mN2latjswVeEbZij3fVXQFSgXXdLAtmXgBsRtWfadq7VQ36hNre9fa2rUate3G5nsJY0qI+pjxMYkuPUcCxhwHc8lu7WzUrW1ry2ogcy0RyMoMYKOh747IpceI2ya+z0pZxNQX2HQ4nLqcMS1k5ni1oIercBDh+WzicZ+UU2M0aBkB1bpkQmy0H0bEAfs9SKVDcjWMtFkn8z5gJzMv4osOXpSWdcxINJwLI5VjtVEnpLzpk4gfz+GuiQuuAAibRzFB5h3IjKnjMQe+PRoT1z7DPsszFZDoJIwu2Bw75BDi2BQyrqgfYhccjnuMew7LBKxg0FEUzkEk7N4KfXcfxGoV1yBS0T0KNhb7tsLwYll6EYnktcoLhksNME/IV+BoPAuvhtRfjOMpcyJvStxOK6Fei0MiIjV3O2Y8DECLDIQULAdZwD+IwGUw6hDHC7B/5IMVmb0BUgoA1Ix5eObxdujHAU3NuQRFJ3CiCblOT5iu0RBulwqjh7RHE3pl5rWoIsMovEr3XEVII+TATeYkTraKWCbuACy5vlWMvBFxyn3PhwKRv4sctOgV4xkhfK1LKAwSuXBflBy7tTiMgynE1xSC7FLuypCZ4RH4KTg76GVbUEaq8mdiWbvyB/RI0ahL3bvpEiSC7XJ72XXALYEQnMlv+ZheAPTE47PDZnKWNRikLHAn/SoOQejOfbyQ4NRKeRjqUcePXaIyQo+eSRcVuqlLvRONVkB9iHEbYbqYLOaQmJm3y+FjrwKlepfxCJqBiu2EMeXRQqQOZGrSt/GweErlBti/N89ZRH4YQw+y2I+p0w7d++/mKuscU4/fX8MwjlQ+vD+LtJ7IjDHrEJFjZNa/N79T5kwsKkUeUBKE1HPub20wstDefcBBWBJVOQ7zDt/qkDMc+9DlcChG51mdWQKjJrtYpsmD0HHkJ6nCFj0kgybScYOaA2VWNEo1JwwEwITe7WSMzDy96BUc0qXnfUzPY6jGaQAuw9NEJQrJJMKUieOkxXcpZ60nQklAq6bAVlE+jKXFVJSHgEXmEh2akGAeRtgfgGG8fX0/urOAoj3AfKZXUAR84iRGNjPWlKuoWaL428hkNlfHEJGh88kSUBKJs6h2NaPJYEiccgD+67ex700jlX6SmrcOBxeWtVFJohKHK9lSJXcAIwuUqe+Shehjs4WGS5etJwjlwCLj2OPRo53GprUBvblcI3niEcG+0QWv58To0UvCeABsu8aIMM+FLw/7u8a7ZEo8qBbSRDpfl+bO86H9JCFKVZqgbxFSJIDCfO5Bvl0lTDEZg31KcOQvcoTqqP3QAbrbH//75jfPX734/Pbjp2++/OC///jVq3/+7ObZh/Bx+9e/3XzyS3VMRYwmeOoTqdCktbNjbTwCP0tBSBjXlD2kGztcwk5PZeuYrpEegeSi3e21D/otmU9SYMKucq8ppqtFGGfLsTqE3EheqZl4giKxJ0l+0usCNpfLbTHtXJIidR5/F6OyxeuXn79++ec7ubXBsqak/vjxZrXeeGvPAnNjfYUu7VnEFKmGhGRGfVS1NquNRo54iQaNYNSGmSC1U8+1YSx9bDU2rHqay93UkdcRLaO0pAk+N5f4FKit+ojUBfLrBCkdfwIhkqJVKOQW2kW//MmbvzwtUGnrakhRCign673YzEwWUvThaGKMh8ejdteYdMfCTzJcjk4J/wZivXsaTwWnojTG/ncMQsXzilGB0aFihGcGwc7MWEAk5uKw4GzroGqjB4pc1vIgCuO5upEcQwZdQ5lmk7Uca3KNxEl7riSdDLWGXOl68/cv1jHog3Syzi99KcjDUAGjQDm8jtrP/vXqq49evXhx+/znN1/9qCBB75MO0ODnEE35Zer2kPJ0vVmCoJOxNOaF9f1cfdFAMXEchR7lzK5vyWFDrxCw1oU0+Rv1Aih5UrC0F8CXIOhdzLrXXAe2fYjMIgD0nGOotmE2pKUAlcMzu/7nt7+7/fUXt58+f/PRn24+/uPNJ5++fvn7N8/+oKLu9unz258+01l+uRBIXcTop5pAQz4kOIaIRkPUbuPr939h0JAb0HIYscxIX7//WU6YUFQ2J5lkaOlSRYoqrJDmmQWfkVMl1aHAl7KoBqAtSthGSqGLWDj3nGyT96pClIg7ifhWb1KNGTFC6Ka+DScpEmfM9+XTLKqkHm1bjXpDY5U24ghTzHKmP/DDKTQZCUJO6kskBa5vZsho5X4H/WGr2c9IlBLDyIXB3hLPDeIDJS2lKCk9lqwSV8tBAAuNnxP74nFlhWwVlUrOpTFTv1KcNV2R/tbP9AUK1I6jSDVEVL96j+M5NMPJW9bdePnAl+t/D1Wvmu+Is3WvU8TDOoeFQlhEC4DEy9SkUSpN9Zh4EFHt7KEwTbYEXOFREMyhH7ZVp3UJfWVkirzTjaIwWpt8MkxCNoBOGjKKmVk8pZF3qrpuN7urBJAkvPRDTX76hGGH+ISXe/U1M+5BePlgXrj7sqw9NvRdbcxyo0dqlkxA/ulbOMr/+/KtnK0ZRdBYiZey0k/VyeA6gnm3pDbqKJJRTICwu35L3vcixp+ITKC/FOQ0hZyqDvWJGLjUh1yf2g0NAAIzL90sqJmELld/gAj9vhd4JcdCK4nvohCw5XyuWrheOU8RpeWQXEODmZMASXH6Aygb6uWkjDTlsJBLU37xyMe88xkvq9j2FBOXTK2qMyWN6iPX2qk+JmSjWq/D/9hpNCxrUzwRauGQOTxyVXITM7mw7A+D9v8AxG0jbVEcAAA=</t>
+          <t>Sh4AAB+LCAAAAAAAAAOlGVlvG8f5ryz41AKl9qBsS8J4A/GQQ5Q6IFK1lZdiuDuUplrOsjuzkviWAglSpCmKonCK9ESfUhSoa7QJkNo9/ktgye5T/0K/OfYiqVirGgK8813zzTffOUTvXE4j65wknMbsYcNdcxoWYUEcUnbysJGKSdO933jHR73LgEQHOMFTIoDYAi7Gty45fdg4FWK2ZdsXFxdrF621ODmxPcdx7Se7g2FwSqa4SRkXmAWkkXOFb+dq+KgTTneJwCEWWHM+bPSH/bUOoUEXYLuY4ROSrLVTThnhvMcEFZRwyZkQLEinu/s9fTDfW7u/5iJ7CV5QtlMahZquQqnhhg62JSM6Jb7neE7T2Wh66yPX3Wq1trzWmrOx/l7GmBOiAeZiSJJzGijAUODpTLE7G96667ZaXgvZK4lAVmEAH+1H4SE5p5yEHRJFvJZFbHOB24GAU9czpoPsEq8RdHcVHiV4djqiIiJ12XfihARgqDvtvUcu9hNjv9FsANjRKU3EvIvntWUdcZLsz6Q16rH6qBszsR2RRBzN4FJJCHcOCF8kKUH2DciCqUt5AN+UpST0JzjiZaYKEj2OkzM+wwHZg4C1pYwLFsU4BM8SlAsa8ELAEgYdJPEMRMLu7TgKd0CsUXEFIhfdZ2BjuW87js8WpVeRSDmBcge41CkWGfkSHA1P44t9Fs2H6ZgHCR2TsNvOqFfikAw9w91JuYinoEUBQhpWgszhH4TaIhh1SUCnODqIwIrchyCtAtB2KuIJFZ04SqcsN+cCFD2GE43IZX7CfI324XaZNHrM+iyj12ZeiaoyHMYX+Z7LCGWEEnibB5mTLSMWibsAy65vGaNuRJ5yh0ZQCcp3UYJWvWJ4SohY6RIag2TS25G1xW/P99LpGOJrDEF2rnblyC7wCPwUnB308h2oF031N3KcLfUHeuRo1GPhzXQZEsF2pb18F3ALIARnitoRZmcAfUzF6d52dpYVGKQtcCP9Mg5B6M4iPFfg3EplGOqzIEpDojNCn02Ui0rd9KXeiEZLoAHEuI8wm4/mM8jAnG4J+HjYgJq8xUUCVb/hB3HKRDKXqQPZhvRtPDwdM7UBjm7NM0nID1NoNuY7KQs6cXj73UJtnSNGxe01jNNE58PbsyjrycyY8i6ROUZl/VvzB3XOxJNa5FNGpjGjwe2tDUaW2od3OAjPoqrEYd/gW10ywWkE7YyAYnRS1JkFMNrmZ4s0ZRA6SqIsVfiyWeTQLQbhdC2AMis7orUgnkqADU3a4yGyy/SyVwhIj50MMDtJoRrnAbgIzxOVLCSjBDMuj5MX34WctZoIZQGtmwJfR/l+qiymozwGLLIX6NCITGdxgqNdMAzdMfdjOgso2rtYnJoVFIGIBJmR7YI156pqlin+NjKVzfUxZGSYfLIAVETyLLovLWgKGJKn3AX/jTo4ouNEp5+s5q3CwYUVbVSWqOTharZU2R3AbAJl6rtkLhvWYmHgymXdDKEdWGYcf3i4vuHdc1oetAByjdSJDwmOrB54vSBWn50TLqbAtmUdEk5D+KI42rLeJWNCoVooE5l8XZu7zId2soSoVNkGfauQKgEU5hMK+XaZMMcUDP4xwUk0LxHqow7iAOiuf/zvq988f/Xi8+uPn7758oP//uNXr/75s6tnH8LH9V//dvXJL/UxNTEa4XFElEKj9saG01oHP8tBSBrXVj1kmAZCwY6PVeuYr5GZddSi0+t3Hg3aKp/kwIxd515bjlHzOC2WQ30ItZG6UjvzBE3ij7L8ZNYVbCmX+3KsOSdV6jL+JkZti9cvP3/98s83chuDFU2Ju7l5r+l6b+1ZPMd1l+jynkWOi3pIMMOou9507jU9r0S8QIMOYaaGmSC3Uz/0W66z6Xgtx81zeZg78iqiRZSRNMIn9gKfBnV0H5G7QHmdIZXjjyBEcrQOhdLCuOiXP3nzl6cVKmNdA6lKAeVUvZeb2dlCid47HFnD/aPDTs8a9YbSTwpciU4L/wZis3seTxWnYizF0XcswuQ7itWA0aFhxROL4ODUmkMkluKw4myroHqjO4pc1PJREqczfSMlhgK6gjLPJis5VuQahVP2XEo6BWoFudb16u9frGIwB+kWnZ9/uNu2piz3SwVDFYwGlfAmaj/716uvPnr14sX1859fffWjigSzTz5Ag59DNJWXudtDyjP1ZgGCHg+VMc+c75fqiwHKieMgpkxw372vhg2zQsDqSmnqf9SfQslTgpW9AL4AQe9i3rsUJrD9PWRXAaDnDEO1jYshLQfoHF7Y9T+//d31r7+4/vT5m4/+dPXxH68++fT1y9+/efYHHXXXT59f//SZyfKLhUDpIkc/3QRa6iEhsGQ0WrJ2W1+//wuLxcKClsNKVUb6+v3PSsKkoqo5KSRDS5crUlVhibTMLPmskiq5DhW+nEU3AB1Zwlo5hSli8YwGxSbvNaUoGXcK8a3+qJlyYsXQTX0bTlIlLphvy2dYdEk9eOB4rmewWht5hDHmJdM/iuIxNBkZQk3qCyQVrm9mKGjVfo8G++3tQUGildhPQhjsHfncID9Qn2dNZeZeJQhgodkL0kg+qCyRLaNQ9lVKXbZ5mZhshzLlrZ7jKxSokyaJboKYedIepjNogLP3q5vx6lGv1PPu6f603AUX6363iod1CQvFr4qWAIVX6cigdGrqc/kIolvYPWmaYgm4ykMgmMO8Wuvu6hx6ycSWuaaXJHGyMuEUmIxsF7pnyCJ2YfGcxpZb6k47LO4qA2RJLv/Q0545YdwlERG1n3Qz7t34/M68cPd1Wft8PwqNMeuNG7lZCgHld23pKHWV2U4SaJvkO1jth+gBZWf9eqf3Ww+w603uTTbc++MHxBnjjQnB3npIPPeB60Irr4XK6VOKkJOLnN3qbQLNYpW9mLMPYfKuKU0bWDHKWRQspQLSJPZ8jXZowsUTmaLMl4Yc55Bj3To/kfrpD7U+9j0DAAK7vJld0TrLL0L/BBJHAzqlNedVJ0tCVSHgBrOZ7i3rXijUvD1yCZ1vSQJk6/EPoJ7pJ5060nRUQZLP+TNZw3RcW5ydMR8AXjrW3bh7IfRld+dWvyfQ6P9QQHVedxXRZ5yenIq69+ptbrbIfeI1vUkQNNdh0YRqPG6GeLLpOs6kFd7z5NOvEQ7VgZKLmpvImkI5zBX1+eyFX4T9/wHBnHKhSh4AAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,4 +617,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>22</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD4462D-890F-45E1-A729-C4E23435038B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_32.xlsx
+++ b/Testdata/TC_32.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Sh4AAB+LCAAAAAAAAAOlGVlvG8f5ryz41AKl9qBsS8J4A/GQQ5Q6IFK1lZdiuDuUplrOsjuzkviWAglSpCmKonCK9ESfUhSoa7QJkNo9/ktgye5T/0K/OfYiqVirGgK8813zzTffOUTvXE4j65wknMbsYcNdcxoWYUEcUnbysJGKSdO933jHR73LgEQHOMFTIoDYAi7Gty45fdg4FWK2ZdsXFxdrF621ODmxPcdx7Se7g2FwSqa4SRkXmAWkkXOFb+dq+KgTTneJwCEWWHM+bPSH/bUOoUEXYLuY4ROSrLVTThnhvMcEFZRwyZkQLEinu/s9fTDfW7u/5iJ7CV5QtlMahZquQqnhhg62JSM6Jb7neE7T2Wh66yPX3Wq1trzWmrOx/l7GmBOiAeZiSJJzGijAUODpTLE7G96667ZaXgvZK4lAVmEAH+1H4SE5p5yEHRJFvJZFbHOB24GAU9czpoPsEq8RdHcVHiV4djqiIiJ12XfihARgqDvtvUcu9hNjv9FsANjRKU3EvIvntWUdcZLsz6Q16rH6qBszsR2RRBzN4FJJCHcOCF8kKUH2DciCqUt5AN+UpST0JzjiZaYKEj2OkzM+wwHZg4C1pYwLFsU4BM8SlAsa8ELAEgYdJPEMRMLu7TgKd0CsUXEFIhfdZ2BjuW87js8WpVeRSDmBcge41CkWGfkSHA1P44t9Fs2H6ZgHCR2TsNvOqFfikAw9w91JuYinoEUBQhpWgszhH4TaIhh1SUCnODqIwIrchyCtAtB2KuIJFZ04SqcsN+cCFD2GE43IZX7CfI324XaZNHrM+iyj12ZeiaoyHMYX+Z7LCGWEEnibB5mTLSMWibsAy65vGaNuRJ5yh0ZQCcp3UYJWvWJ4SohY6RIag2TS25G1xW/P99LpGOJrDEF2rnblyC7wCPwUnB308h2oF031N3KcLfUHeuRo1GPhzXQZEsF2pb18F3ALIARnitoRZmcAfUzF6d52dpYVGKQtcCP9Mg5B6M4iPFfg3EplGOqzIEpDojNCn02Ui0rd9KXeiEZLoAHEuI8wm4/mM8jAnG4J+HjYgJq8xUUCVb/hB3HKRDKXqQPZhvRtPDwdM7UBjm7NM0nID1NoNuY7KQs6cXj73UJtnSNGxe01jNNE58PbsyjrycyY8i6ROUZl/VvzB3XOxJNa5FNGpjGjwe2tDUaW2od3OAjPoqrEYd/gW10ywWkE7YyAYnRS1JkFMNrmZ4s0ZRA6SqIsVfiyWeTQLQbhdC2AMis7orUgnkqADU3a4yGyy/SyVwhIj50MMDtJoRrnAbgIzxOVLCSjBDMuj5MX34WctZoIZQGtmwJfR/l+qiymozwGLLIX6NCITGdxgqNdMAzdMfdjOgso2rtYnJoVFIGIBJmR7YI156pqlin+NjKVzfUxZGSYfLIAVETyLLovLWgKGJKn3AX/jTo4ouNEp5+s5q3CwYUVbVSWqOTharZU2R3AbAJl6rtkLhvWYmHgymXdDKEdWGYcf3i4vuHdc1oetAByjdSJDwmOrB54vSBWn50TLqbAtmUdEk5D+KI42rLeJWNCoVooE5l8XZu7zId2soSoVNkGfauQKgEU5hMK+XaZMMcUDP4xwUk0LxHqow7iAOiuf/zvq988f/Xi8+uPn7758oP//uNXr/75s6tnH8LH9V//dvXJL/UxNTEa4XFElEKj9saG01oHP8tBSBrXVj1kmAZCwY6PVeuYr5GZddSi0+t3Hg3aKp/kwIxd515bjlHzOC2WQ30ItZG6UjvzBE3ij7L8ZNYVbCmX+3KsOSdV6jL+JkZti9cvP3/98s83chuDFU2Ju7l5r+l6b+1ZPMd1l+jynkWOi3pIMMOou9507jU9r0S8QIMOYaaGmSC3Uz/0W66z6Xgtx81zeZg78iqiRZSRNMIn9gKfBnV0H5G7QHmdIZXjjyBEcrQOhdLCuOiXP3nzl6cVKmNdA6lKAeVUvZeb2dlCid47HFnD/aPDTs8a9YbSTwpciU4L/wZis3seTxWnYizF0XcswuQ7itWA0aFhxROL4ODUmkMkluKw4myroHqjO4pc1PJREqczfSMlhgK6gjLPJis5VuQahVP2XEo6BWoFudb16u9frGIwB+kWnZ9/uNu2piz3SwVDFYwGlfAmaj/716uvPnr14sX1859fffWjigSzTz5Ag59DNJWXudtDyjP1ZgGCHg+VMc+c75fqiwHKieMgpkxw372vhg2zQsDqSmnqf9SfQslTgpW9AL4AQe9i3rsUJrD9PWRXAaDnDEO1jYshLQfoHF7Y9T+//d31r7+4/vT5m4/+dPXxH68++fT1y9+/efYHHXXXT59f//SZyfKLhUDpIkc/3QRa6iEhsGQ0WrJ2W1+//wuLxcKClsNKVUb6+v3PSsKkoqo5KSRDS5crUlVhibTMLPmskiq5DhW+nEU3AB1Zwlo5hSli8YwGxSbvNaUoGXcK8a3+qJlyYsXQTX0bTlIlLphvy2dYdEk9eOB4rmewWht5hDHmJdM/iuIxNBkZQk3qCyQVrm9mKGjVfo8G++3tQUGildhPQhjsHfncID9Qn2dNZeZeJQhgodkL0kg+qCyRLaNQ9lVKXbZ5mZhshzLlrZ7jKxSokyaJboKYedIepjNogLP3q5vx6lGv1PPu6f603AUX6363iod1CQvFr4qWAIVX6cigdGrqc/kIolvYPWmaYgm4ykMgmMO8Wuvu6hx6ycSWuaaXJHGyMuEUmIxsF7pnyCJ2YfGcxpZb6k47LO4qA2RJLv/Q0545YdwlERG1n3Qz7t34/M68cPd1Wft8PwqNMeuNG7lZCgHld23pKHWV2U4SaJvkO1jth+gBZWf9eqf3Ww+w603uTTbc++MHxBnjjQnB3npIPPeB60Irr4XK6VOKkJOLnN3qbQLNYpW9mLMPYfKuKU0bWDHKWRQspQLSJPZ8jXZowsUTmaLMl4Yc55Bj3To/kfrpD7U+9j0DAAK7vJld0TrLL0L/BBJHAzqlNedVJ0tCVSHgBrOZ7i3rXijUvD1yCZ1vSQJk6/EPoJ7pJ5060nRUQZLP+TNZw3RcW5ydMR8AXjrW3bh7IfRld+dWvyfQ6P9QQHVedxXRZ5yenIq69+ptbrbIfeI1vUkQNNdh0YRqPG6GeLLpOs6kFd7z5NOvEQ7VgZKLmpvImkI5zBX1+eyFX4T9/wHBnHKhSh4AAA==</t>
+          <t>URwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlUvL6ssaYgW52hEqWIcn1Oi/FiBxbrMmhyhna1lsKJEiRpiiKYlOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+FNkrOmuzDWnHObM2fOdYzeuQ5845JEzAvpXqVesyoGoU7oevR8rxLzs2p9q/KOjbrXDvGPcIQDwoHYAC7Kdq+Zt1eZcT7fNc2rq6va1UYtjM7NhmXVzSeD/tiZkQBXPco4pg6ppFzu27kqNmq7wYBw7GKOFedepTfu1drEczoAG2CKz0lUa8XMo4SxLuUe9wgTnBHBnLQ7g++pg9mN2latjswVeEbZij3fVXQFSgXXdLAtmXgBsRtWfadq7VQ36hNre9fa2rUate3G5nsJY0qI+pjxMYkuPUcCxhwHc8lu7WzUrW1ry2ogcy0RyMoMYKOh747IpceI2ya+z0pZxNQX2HQ4nLqcMS1k5ni1oIercBDh+WzicZ+UU2M0aBkB1bpkQmy0H0bEAfs9SKVDcjWMtFkn8z5gJzMv4osOXpSWdcxINJwLI5VjtVEnpLzpk4gfz+GuiQuuAAibRzFB5h3IjKnjMQe+PRoT1z7DPsszFZDoJIwu2Bw75BDi2BQyrqgfYhccjnuMew7LBKxg0FEUzkEk7N4KfXcfxGoV1yBS0T0KNhb7tsLwYll6EYnktcoLhksNME/IV+BoPAuvhtRfjOMpcyJvStxOK6Fei0MiIjV3O2Y8DECLDIQULAdZwD+IwGUw6hDHC7B/5IMVmb0BUgoA1Ix5eObxdujHAU3NuQRFJ3CiCblOT5iu0RBulwqjh7RHE3pl5rWoIsMovEr3XEVII+TATeYkTraKWCbuACy5vlWMvBFxyn3PhwKRv4sctOgV4xkhfK1LKAwSuXBflBy7tTiMgynE1xSC7FLuypCZ4RH4KTg76GVbUEaq8mdiWbvyB/RI0ahL3bvpEiSC7XJ72XXALYEQnMlv+ZheAPTE47PDZnKWNRikLHAn/SoOQejOfbyQ4NRKeRjqUcePXaIyQo+eSRcVuqlLvRONVkB9iHEbYbqYLOaQmJm3y+FjrwKlepfxCJqBiu2EMeXRQqQOZGrSt/GweErlBti/N89ZRH4YQw+y2I+p0w7d++/mKuscU4/fX8MwjlQ+vD+LtJ7IjDHrEJFjZNa/N79T5kwsKkUeUBKE1HPub20wstDefcBBWBJVOQ7zDt/qkDMc+9DlcChG51mdWQKjJrtYpsmD0HHkJ6nCFj0kgybScYOaA2VWNEo1JwwEwITe7WSMzDy96BUc0qXnfUzPY6jGaQAuw9NEJQrJJMKUieOkxXcpZ60nQklAq6bAVlE+jKXFVJSHgEXmEh2akGAeRtgfgGG8fX0/urOAoj3AfKZXUAR84iRGNjPWlKuoWaL428hkNlfHEJGh88kSUBKJs6h2NaPJYEiccgD+67ex700jlX6SmrcOBxeWtVFJohKHK9lSJXcAIwuUqe+Shehjs4WGS5etJwjlwCLj2OPRo53GprUBvblcI3niEcG+0QWv58To0UvCeABsu8aIMM+FLw/7u8a7ZEo8qBbSRDpfl+bO86H9JCFKVZqgbxFSJIDCfO5Bvl0lTDEZg31KcOQvcoTqqP3QAbrbH//75jfPX734/Pbjp2++/OC///jVq3/+7ObZh/Bx+9e/3XzyS3VMRYwmeOoTqdCktbNjbTwCP0tBSBjXlD2kGztcwk5PZeuYrpEegeSi3e21D/otmU9SYMKucq8ppqtFGGfLsTqE3EheqZl4giKxJ0l+0usCNpfLbTHtXJIidR5/F6OyxeuXn79++ec7ubXBsqak/vjxZrXeeGvPAnNjfYUu7VnEFKmGhGRGfVS1NquNRo54iQaNYNSGmSC1U8+1YSx9bDU2rHqay93UkdcRLaO0pAk+N5f4FKit+ojUBfLrBCkdfwIhkqJVKOQW2kW//MmbvzwtUGnrakhRCign673YzEwWUvThaGKMh8ejdteYdMfCTzJcjk4J/wZivXsaTwWnojTG/ncMQsXzilGB0aFihGcGwc7MWEAk5uKw4GzroGqjB4pc1vIgCuO5upEcQwZdQ5lmk7Uca3KNxEl7riSdDLWGXOl68/cv1jHog3Syzi99KcjDUAGjQDm8jtrP/vXqq49evXhx+/znN1/9qCBB75MO0ODnEE35Zer2kPJ0vVmCoJOxNOaF9f1cfdFAMXEchR7lzK5vyWFDrxCw1oU0+Rv1Aih5UrC0F8CXIOhdzLrXXAe2fYjMIgD0nGOotmE2pKUAlcMzu/7nt7+7/fUXt58+f/PRn24+/uPNJ5++fvn7N8/+oKLu9unz258+01l+uRBIXcTop5pAQz4kOIaIRkPUbuPr939h0JAb0HIYscxIX7//WU6YUFQ2J5lkaOlSRYoqrJDmmQWfkVMl1aHAl7KoBqAtSthGSqGLWDj3nGyT96pClIg7ifhWb1KNGTFC6Ka+DScpEmfM9+XTLKqkHm1bjXpDY5U24ghTzHKmP/DDKTQZCUJO6kskBa5vZsho5X4H/WGr2c9IlBLDyIXB3hLPDeIDJS2lKCk9lqwSV8tBAAuNnxP74nFlhWwVlUrOpTFTv1KcNV2R/tbP9AUK1I6jSDVEVL96j+M5NMPJW9bdePnAl+t/D1Wvmu+Is3WvU8TDOoeFQlhEC4DEy9SkUSpN9Zh4EFHt7KEwTbYEXOFREMyhH7ZVp3UJfWVkirzTjaIwWpt8MkxCNoBOGjKKmVk8pZF3qrpuN7urBJAkvPRDTX76hGGH+ISXe/U1M+5BePlgXrj7sqw9NvRdbcxyo0dqlkxA/ulbOMr/+/KtnK0ZRdBYiZey0k/VyeA6gnm3pDbqKJJRTICwu35L3vcixp+ITKC/FOQ0hZyqDvWJGLjUh1yf2g0NAAIzL90sqJmELld/gAj9vhd4JcdCK4nvohCw5XyuWrheOU8RpeWQXEODmZMASXH6Aygb6uWkjDTlsJBLU37xyMe88xkvq9j2FBOXTK2qMyWN6iPX2qk+JmSjWq/D/9hpNCxrUzwRauGQOTxyVXITM7mw7A+D9v8AxG0jbVEcAAA=</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,37 +617,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>22</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DD4462D-890F-45E1-A729-C4E23435038B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>